--- a/modelos/OBAOLE4423075/OBAOLE4423075_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423075/OBAOLE4423075_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44980</v>
       </c>
       <c r="B2" t="n">
-        <v>31.37859866378028</v>
+        <v>31.87646064404264</v>
       </c>
       <c r="C2" t="n">
-        <v>-36.17080788839552</v>
+        <v>-38.40391312101696</v>
       </c>
       <c r="D2" t="n">
-        <v>99.3000781168696</v>
+        <v>106.9950978380749</v>
       </c>
       <c r="E2" t="n">
         <v>246</v>
@@ -496,13 +496,13 @@
         <v>44985</v>
       </c>
       <c r="B3" t="n">
-        <v>91.71477773870851</v>
+        <v>92.23213196970745</v>
       </c>
       <c r="C3" t="n">
-        <v>25.08544240437901</v>
+        <v>15.73920468144015</v>
       </c>
       <c r="D3" t="n">
-        <v>160.8529601765486</v>
+        <v>160.2675485295497</v>
       </c>
       <c r="E3" t="n">
         <v>90</v>
@@ -516,13 +516,13 @@
         <v>44988</v>
       </c>
       <c r="B4" t="n">
-        <v>76.53259949767867</v>
+        <v>77.13846951346683</v>
       </c>
       <c r="C4" t="n">
-        <v>10.93554683253271</v>
+        <v>11.96130984799845</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6529841149686</v>
+        <v>144.2649158287368</v>
       </c>
       <c r="E4" t="n">
         <v>66</v>
@@ -536,13 +536,13 @@
         <v>44992</v>
       </c>
       <c r="B5" t="n">
-        <v>92.29298278247923</v>
+        <v>93.07686436157803</v>
       </c>
       <c r="C5" t="n">
-        <v>21.37599777679468</v>
+        <v>26.56763608286182</v>
       </c>
       <c r="D5" t="n">
-        <v>159.2625926473878</v>
+        <v>164.1277636258594</v>
       </c>
       <c r="E5" t="n">
         <v>138</v>
@@ -556,13 +556,13 @@
         <v>45006</v>
       </c>
       <c r="B6" t="n">
-        <v>96.81514901474496</v>
+        <v>97.25440784654265</v>
       </c>
       <c r="C6" t="n">
-        <v>30.82084680389163</v>
+        <v>28.88240754104718</v>
       </c>
       <c r="D6" t="n">
-        <v>163.1473438346946</v>
+        <v>168.7961930776956</v>
       </c>
       <c r="E6" t="n">
         <v>258</v>
@@ -576,13 +576,13 @@
         <v>45013</v>
       </c>
       <c r="B7" t="n">
-        <v>111.3248442112356</v>
+        <v>111.9928235874531</v>
       </c>
       <c r="C7" t="n">
-        <v>38.26504619008703</v>
+        <v>38.46526092879115</v>
       </c>
       <c r="D7" t="n">
-        <v>177.789081753367</v>
+        <v>184.3569435109229</v>
       </c>
       <c r="E7" t="n">
         <v>60</v>
@@ -596,13 +596,13 @@
         <v>45020</v>
       </c>
       <c r="B8" t="n">
-        <v>108.8083958411913</v>
+        <v>109.1372382702886</v>
       </c>
       <c r="C8" t="n">
-        <v>31.31028085572968</v>
+        <v>31.89969849507956</v>
       </c>
       <c r="D8" t="n">
-        <v>176.8627652534912</v>
+        <v>178.5055148389344</v>
       </c>
       <c r="E8" t="n">
         <v>78</v>
@@ -616,13 +616,13 @@
         <v>45027</v>
       </c>
       <c r="B9" t="n">
-        <v>106.9620412336151</v>
+        <v>107.315088175575</v>
       </c>
       <c r="C9" t="n">
-        <v>33.48876928922451</v>
+        <v>34.8683846987544</v>
       </c>
       <c r="D9" t="n">
-        <v>173.5043538142649</v>
+        <v>183.2689250541109</v>
       </c>
       <c r="E9" t="n">
         <v>198</v>
@@ -636,13 +636,13 @@
         <v>45034</v>
       </c>
       <c r="B10" t="n">
-        <v>114.3565285928386</v>
+        <v>114.7189854650781</v>
       </c>
       <c r="C10" t="n">
-        <v>42.4312189218813</v>
+        <v>44.16755679246332</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0584201590589</v>
+        <v>197.1148431024708</v>
       </c>
       <c r="E10" t="n">
         <v>390</v>
@@ -656,13 +656,13 @@
         <v>45062</v>
       </c>
       <c r="B11" t="n">
-        <v>140.464153622971</v>
+        <v>140.7985286833481</v>
       </c>
       <c r="C11" t="n">
-        <v>60.14293730873603</v>
+        <v>49.54823185383495</v>
       </c>
       <c r="D11" t="n">
-        <v>222.4662081853776</v>
+        <v>220.703128239774</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -737,22 +737,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>46062.34591152269</v>
+        <v>45848.89010632221</v>
       </c>
       <c r="C2" t="n">
-        <v>214.6214013362197</v>
+        <v>214.1235393559573</v>
       </c>
       <c r="D2" t="n">
-        <v>214.6214013362197</v>
+        <v>214.1235393559573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.872444720878942</v>
+        <v>0.8704208916908835</v>
       </c>
       <c r="F2" t="n">
-        <v>0.872444720878942</v>
+        <v>0.8704208916908835</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54749791346642</v>
+        <v>1.541141979854477</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>110.9356521785011</v>
+        <v>124.06550310243</v>
       </c>
       <c r="C3" t="n">
-        <v>10.53259949767867</v>
+        <v>11.13846951346683</v>
       </c>
       <c r="D3" t="n">
-        <v>10.53259949767867</v>
+        <v>11.13846951346683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1595848408739193</v>
+        <v>0.1687646895979823</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1595848408739193</v>
+        <v>0.1687646895979823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1477921476882937</v>
+        <v>0.155632089002026</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -789,25 +789,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15424.9135109809</v>
+        <v>15384.04650184428</v>
       </c>
       <c r="C4" t="n">
-        <v>124.197075291574</v>
+        <v>124.0324413282439</v>
       </c>
       <c r="D4" t="n">
-        <v>92.9856837238035</v>
+        <v>92.97442208275288</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6241447720713804</v>
+        <v>0.6262940386220794</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5422675774881354</v>
+        <v>0.5405247680006089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6040898345103063</v>
+        <v>0.603959164940072</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4423075/OBAOLE4423075_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423075/OBAOLE4423075_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44980</v>
       </c>
       <c r="B2" t="n">
-        <v>31.87646064404264</v>
+        <v>31.87646064405234</v>
       </c>
       <c r="C2" t="n">
-        <v>-38.40391312101696</v>
+        <v>-37.81425183921054</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9950978380749</v>
+        <v>98.42656222806585</v>
       </c>
       <c r="E2" t="n">
         <v>246</v>
@@ -496,13 +496,13 @@
         <v>44985</v>
       </c>
       <c r="B3" t="n">
-        <v>92.23213196970745</v>
+        <v>92.23213196971734</v>
       </c>
       <c r="C3" t="n">
-        <v>15.73920468144015</v>
+        <v>21.64067821375472</v>
       </c>
       <c r="D3" t="n">
-        <v>160.2675485295497</v>
+        <v>155.7447918980953</v>
       </c>
       <c r="E3" t="n">
         <v>90</v>
@@ -516,13 +516,13 @@
         <v>44988</v>
       </c>
       <c r="B4" t="n">
-        <v>77.13846951346683</v>
+        <v>77.1384993243792</v>
       </c>
       <c r="C4" t="n">
-        <v>11.96130984799845</v>
+        <v>7.250956140408584</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2649158287368</v>
+        <v>150.6427213201017</v>
       </c>
       <c r="E4" t="n">
         <v>66</v>
@@ -536,13 +536,13 @@
         <v>44992</v>
       </c>
       <c r="B5" t="n">
-        <v>93.07686436157803</v>
+        <v>93.07685110041278</v>
       </c>
       <c r="C5" t="n">
-        <v>26.56763608286182</v>
+        <v>19.05372804546765</v>
       </c>
       <c r="D5" t="n">
-        <v>164.1277636258594</v>
+        <v>158.4219397766068</v>
       </c>
       <c r="E5" t="n">
         <v>138</v>
@@ -556,13 +556,13 @@
         <v>45006</v>
       </c>
       <c r="B6" t="n">
-        <v>97.25440784654265</v>
+        <v>97.2544079306973</v>
       </c>
       <c r="C6" t="n">
-        <v>28.88240754104718</v>
+        <v>24.83437893363135</v>
       </c>
       <c r="D6" t="n">
-        <v>168.7961930776956</v>
+        <v>160.9386814757876</v>
       </c>
       <c r="E6" t="n">
         <v>258</v>
@@ -576,13 +576,13 @@
         <v>45013</v>
       </c>
       <c r="B7" t="n">
-        <v>111.9928235874531</v>
+        <v>111.9928247266781</v>
       </c>
       <c r="C7" t="n">
-        <v>38.46526092879115</v>
+        <v>37.59897975180324</v>
       </c>
       <c r="D7" t="n">
-        <v>184.3569435109229</v>
+        <v>180.293695164553</v>
       </c>
       <c r="E7" t="n">
         <v>60</v>
@@ -596,13 +596,13 @@
         <v>45020</v>
       </c>
       <c r="B8" t="n">
-        <v>109.1372382702886</v>
+        <v>109.1372382702458</v>
       </c>
       <c r="C8" t="n">
-        <v>31.89969849507956</v>
+        <v>35.9351898524301</v>
       </c>
       <c r="D8" t="n">
-        <v>178.5055148389344</v>
+        <v>183.6885436014926</v>
       </c>
       <c r="E8" t="n">
         <v>78</v>
@@ -616,13 +616,13 @@
         <v>45027</v>
       </c>
       <c r="B9" t="n">
-        <v>107.315088175575</v>
+        <v>107.3150881749872</v>
       </c>
       <c r="C9" t="n">
-        <v>34.8683846987544</v>
+        <v>32.69344912605078</v>
       </c>
       <c r="D9" t="n">
-        <v>183.2689250541109</v>
+        <v>174.6100636660987</v>
       </c>
       <c r="E9" t="n">
         <v>198</v>
@@ -636,13 +636,13 @@
         <v>45034</v>
       </c>
       <c r="B10" t="n">
-        <v>114.7189854650781</v>
+        <v>114.718985455174</v>
       </c>
       <c r="C10" t="n">
-        <v>44.16755679246332</v>
+        <v>39.42614473680592</v>
       </c>
       <c r="D10" t="n">
-        <v>197.1148431024708</v>
+        <v>185.8804135475325</v>
       </c>
       <c r="E10" t="n">
         <v>390</v>
@@ -656,13 +656,13 @@
         <v>45062</v>
       </c>
       <c r="B11" t="n">
-        <v>140.7985286833481</v>
+        <v>140.7985286834326</v>
       </c>
       <c r="C11" t="n">
-        <v>49.54823185383495</v>
+        <v>52.67163043806378</v>
       </c>
       <c r="D11" t="n">
-        <v>220.703128239774</v>
+        <v>226.2249689993342</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -737,22 +737,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>45848.89010632221</v>
+        <v>45848.89010631807</v>
       </c>
       <c r="C2" t="n">
-        <v>214.1235393559573</v>
+        <v>214.1235393559477</v>
       </c>
       <c r="D2" t="n">
-        <v>214.1235393559573</v>
+        <v>214.1235393559477</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8704208916908835</v>
+        <v>0.8704208916908441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8704208916908835</v>
+        <v>0.8704208916908441</v>
       </c>
       <c r="G2" t="n">
-        <v>1.541141979854477</v>
+        <v>1.541141979854354</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>124.06550310243</v>
+        <v>124.0661671991958</v>
       </c>
       <c r="C3" t="n">
-        <v>11.13846951346683</v>
+        <v>11.1384993243792</v>
       </c>
       <c r="D3" t="n">
-        <v>11.13846951346683</v>
+        <v>11.1384993243792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1687646895979823</v>
+        <v>0.1687651412784727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1687646895979823</v>
+        <v>0.1687651412784727</v>
       </c>
       <c r="G3" t="n">
-        <v>0.155632089002026</v>
+        <v>0.1556324731215356</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -789,22 +789,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15384.04650184428</v>
+        <v>15384.04666290003</v>
       </c>
       <c r="C4" t="n">
-        <v>124.0324413282439</v>
+        <v>124.0324419774924</v>
       </c>
       <c r="D4" t="n">
-        <v>92.97442208275288</v>
+        <v>92.97442387360024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6262940386220794</v>
+        <v>0.6262940529703034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5405247680006089</v>
+        <v>0.5405247678390028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.603959164940072</v>
+        <v>0.6039591831539584</v>
       </c>
       <c r="H4" t="n">
         <v>0.625</v>

--- a/modelos/OBAOLE4423075/OBAOLE4423075_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4423075/OBAOLE4423075_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>31.87646064405234</v>
       </c>
       <c r="C2" t="n">
-        <v>-37.81425183921054</v>
+        <v>-33.95593206629776</v>
       </c>
       <c r="D2" t="n">
-        <v>98.42656222806585</v>
+        <v>106.0153680499159</v>
       </c>
       <c r="E2" t="n">
         <v>246</v>
@@ -499,10 +499,10 @@
         <v>92.23213196971734</v>
       </c>
       <c r="C3" t="n">
-        <v>21.64067821375472</v>
+        <v>22.33007016284311</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7447918980953</v>
+        <v>159.1161754933608</v>
       </c>
       <c r="E3" t="n">
         <v>90</v>
@@ -519,10 +519,10 @@
         <v>77.1384993243792</v>
       </c>
       <c r="C4" t="n">
-        <v>7.250956140408584</v>
+        <v>6.987400927979126</v>
       </c>
       <c r="D4" t="n">
-        <v>150.6427213201017</v>
+        <v>147.405365520279</v>
       </c>
       <c r="E4" t="n">
         <v>66</v>
@@ -539,10 +539,10 @@
         <v>93.07685110041278</v>
       </c>
       <c r="C5" t="n">
-        <v>19.05372804546765</v>
+        <v>26.20298570836085</v>
       </c>
       <c r="D5" t="n">
-        <v>158.4219397766068</v>
+        <v>158.2954111198349</v>
       </c>
       <c r="E5" t="n">
         <v>138</v>
@@ -559,10 +559,10 @@
         <v>97.2544079306973</v>
       </c>
       <c r="C6" t="n">
-        <v>24.83437893363135</v>
+        <v>29.01955626736348</v>
       </c>
       <c r="D6" t="n">
-        <v>160.9386814757876</v>
+        <v>169.8146676073796</v>
       </c>
       <c r="E6" t="n">
         <v>258</v>
@@ -579,10 +579,10 @@
         <v>111.9928247266781</v>
       </c>
       <c r="C7" t="n">
-        <v>37.59897975180324</v>
+        <v>43.44983793039275</v>
       </c>
       <c r="D7" t="n">
-        <v>180.293695164553</v>
+        <v>183.7310355277548</v>
       </c>
       <c r="E7" t="n">
         <v>60</v>
@@ -599,10 +599,10 @@
         <v>109.1372382702458</v>
       </c>
       <c r="C8" t="n">
-        <v>35.9351898524301</v>
+        <v>35.71023040914469</v>
       </c>
       <c r="D8" t="n">
-        <v>183.6885436014926</v>
+        <v>180.1027627936663</v>
       </c>
       <c r="E8" t="n">
         <v>78</v>
@@ -619,10 +619,10 @@
         <v>107.3150881749872</v>
       </c>
       <c r="C9" t="n">
-        <v>32.69344912605078</v>
+        <v>32.13391758631109</v>
       </c>
       <c r="D9" t="n">
-        <v>174.6100636660987</v>
+        <v>177.604828919394</v>
       </c>
       <c r="E9" t="n">
         <v>198</v>
@@ -639,10 +639,10 @@
         <v>114.718985455174</v>
       </c>
       <c r="C10" t="n">
-        <v>39.42614473680592</v>
+        <v>40.60680654005126</v>
       </c>
       <c r="D10" t="n">
-        <v>185.8804135475325</v>
+        <v>189.1179180263627</v>
       </c>
       <c r="E10" t="n">
         <v>390</v>
@@ -659,10 +659,10 @@
         <v>140.7985286834326</v>
       </c>
       <c r="C11" t="n">
-        <v>52.67163043806378</v>
+        <v>62.55317835490533</v>
       </c>
       <c r="D11" t="n">
-        <v>226.2249689993342</v>
+        <v>230.7526064126405</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -807,7 +807,7 @@
         <v>0.6039591831539584</v>
       </c>
       <c r="H4" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
